--- a/main_script/output/table_2.xlsx
+++ b/main_script/output/table_2.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>1.000 GHz</t>
+  </si>
   <si>
     <t>7.206 dB</t>
   </si>
   <si>
+    <t>1234.000 K</t>
+  </si>
+  <si>
     <t>0.467 dB</t>
   </si>
   <si>
-    <t>4.500 GHz</t>
+    <t>1.500 GHz</t>
   </si>
   <si>
     <t>6.871 dB</t>
@@ -40,16 +46,16 @@
     <t>7.159 dB</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>1.427 6B</t>
+    <t>1217.784 K</t>
+  </si>
+  <si>
+    <t>1.427dB</t>
   </si>
   <si>
     <t>2.500 GHz</t>
   </si>
   <si>
-    <t>7.173 6B</t>
+    <t>7.173 dB</t>
   </si>
   <si>
     <t>1222.603 K</t>
@@ -61,19 +67,19 @@
     <t>3.000 GHz</t>
   </si>
   <si>
-    <t>7.245 dB</t>
-  </si>
-  <si>
-    <t>1247 628</t>
+    <t>7.245 d8</t>
+  </si>
+  <si>
+    <t>1247.628 K</t>
   </si>
   <si>
     <t>2.587 dB</t>
   </si>
   <si>
-    <t>3.500 GHz</t>
-  </si>
-  <si>
-    <t>7.451 dB</t>
+    <t>3.500GHz</t>
+  </si>
+  <si>
+    <t>7.451 d8</t>
   </si>
   <si>
     <t>1322.517 K</t>
@@ -82,10 +88,13 @@
     <t>3.815 dB</t>
   </si>
   <si>
+    <t>4.000 GHz</t>
+  </si>
+  <si>
     <t>7.608 dB</t>
   </si>
   <si>
-    <t>1381.940</t>
+    <t>1381.940 K</t>
   </si>
   <si>
     <t>1.266 dB</t>
@@ -451,95 +460,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
